--- a/lexicons/enh_peace_lexicon.xlsx
+++ b/lexicons/enh_peace_lexicon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmackenzie/Documents/Github/peace-speech-project/lexicons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattb\Documents\GitHub\peace-speech-project\lexicons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E023EF11-4085-2645-9D4F-0F8A3BFE0EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C610EA1-7547-47FC-931E-E1AB057BE787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enh_peace_lexicon" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="814">
   <si>
     <t>academic freedom</t>
   </si>
@@ -1687,9 +1687,6 @@
   </si>
   <si>
     <t>pedagogy</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>people to people</t>
@@ -2741,20 +2738,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B991"/>
+  <dimension ref="A1:A991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="14.5" customWidth="1"/>
+    <col min="1" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3742,7 +3739,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
@@ -5472,1540 +5469,1537 @@
         <v>541</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B556" s="1" t="s">
+    </row>
+    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="1" t="s">
+    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="1" t="s">
+    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="1" t="s">
+    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A563" s="3" t="s">
+    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A564" s="3" t="s">
+    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="3" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A565" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A781" s="4" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A781" s="4" t="s">
+    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A782" s="4" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A782" s="4" t="s">
+    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A783" s="4" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A783" s="4" t="s">
+    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A784" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A784" s="4" t="s">
+    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A785" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A785" s="4" t="s">
+    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A786" s="4" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A786" s="4" t="s">
+    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A787" s="4" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A787" s="4" t="s">
+    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A788" s="4" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A788" s="4" t="s">
+    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A789" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A789" s="4" t="s">
+    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A790" s="4" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A790" s="4" t="s">
+    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A791" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A791" s="4" t="s">
+    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A792" s="4" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A792" s="4" t="s">
+    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A793" s="4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A793" s="4" t="s">
+    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A794" s="4" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A794" s="4" t="s">
+    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A795" s="4" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A795" s="4" t="s">
+    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A796" s="4" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A796" s="4" t="s">
+    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A797" s="4" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A797" s="4" t="s">
+    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A798" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A798" s="4" t="s">
+    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A799" s="4" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A799" s="4" t="s">
+    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A800" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A800" s="4" t="s">
+    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A801" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A801" s="4" t="s">
+    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A802" s="4" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A802" s="4" t="s">
+    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A803" s="4" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A803" s="4" t="s">
+    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A804" s="4" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A804" s="4" t="s">
+    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A805" s="4" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A805" s="4" t="s">
+    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A806" s="4" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A806" s="4" t="s">
+    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A807" s="4" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A807" s="4" t="s">
+    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A808" s="4" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A808" s="4" t="s">
+    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A809" s="4" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A809" s="4" t="s">
+    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A810" s="4" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A810" s="4" t="s">
+    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A811" s="4" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A811" s="4" t="s">
+    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A812" s="4" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A812" s="4" t="s">
+    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A813" s="4" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A813" s="4" t="s">
+    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A814" s="4" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A814" s="4" t="s">
+    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A815" s="4" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A815" s="4" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
